--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MATLAB\Examples\R2020b\matlab\PRMIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B89D1F-45CD-4510-A10A-C9C4042337E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A368B6-635E-4E2E-AE24-B33A1FA1E998}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,51 +450,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f ca="1">Sheet2!E2</f>
-        <v>5.7062132046794023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3.5296411306390265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
   </sheetData>
@@ -506,17 +506,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A427B-C650-4F6C-B101-94BEFF35FC08}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -529,7 +529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -539,25 +539,25 @@
       <c r="C2" s="3"/>
       <c r="D2" s="7">
         <f ca="1">B3/B2</f>
-        <v>5.7062132046794022E-2</v>
+        <v>3.5296411306390267E-2</v>
       </c>
       <c r="E2" s="8">
         <f ca="1">D2*100</f>
-        <v>5.7062132046794023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.5296411306390265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B6)</f>
-        <v>57.062132046794019</v>
+        <v>35.296411306390269</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -567,7 +567,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MATLAB\Examples\R2020b\matlab\PRMIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GTK\PRMIA\Matlab Challenge\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A368B6-635E-4E2E-AE24-B33A1FA1E998}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995D0A4F-ABA9-4C02-B573-49C5DF63999C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,9 +57,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -145,20 +145,20 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,51 +450,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f ca="1">Sheet2!E2</f>
-        <v>3.5296411306390265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>0.90046611748699668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
   </sheetData>
@@ -506,17 +506,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A427B-C650-4F6C-B101-94BEFF35FC08}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="H12:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -529,7 +529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -539,40 +539,40 @@
       <c r="C2" s="3"/>
       <c r="D2" s="7">
         <f ca="1">B3/B2</f>
-        <v>3.5296411306390267E-2</v>
+        <v>9.0046611748699663E-3</v>
       </c>
       <c r="E2" s="8">
         <f ca="1">D2*100</f>
-        <v>3.5296411306390265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.90046611748699668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B6)</f>
-        <v>35.296411306390269</v>
+        <v>9.0046611748699661</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
